--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,214 +476,214 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>83957</v>
+        <v>20183</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bárbara Moura</t>
+          <t>Samuel da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>8924.02</v>
+        <v>4903.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2152</v>
+        <v>54583</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brenda Lopes</t>
+          <t>Sr. Arthur Monteiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>4887.82</v>
+        <v>11629.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21646</v>
+        <v>61540</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maitê Vieira</t>
+          <t>Alexandre Gomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>4145.4</v>
+        <v>11132.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67800</v>
+        <v>67537</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Julia da Mota</t>
+          <t>Nicole Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>2740.67</v>
+        <v>9710.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66188</v>
+        <v>39403</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Ryan Martins</t>
+          <t>Carlos Eduardo das Neves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>12316.25</v>
+        <v>4552.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90770</v>
+        <v>40176</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isadora Fogaça</t>
+          <t>Cecília Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>3356.38</v>
+        <v>11151.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14183</v>
+        <v>52992</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Henrique Gomes</t>
+          <t>Davi Lucas da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>9203.35</v>
+        <v>10188.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24198</v>
+        <v>66358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Fogaça</t>
+          <t>Ana Laura Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>11698.4</v>
+        <v>5169.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76989</v>
+        <v>96565</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kaique Campos</t>
+          <t>Helena Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="G10" t="n">
-        <v>7753.44</v>
+        <v>7866.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64247</v>
+        <v>25095</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rebeca da Cunha</t>
+          <t>João Miguel Silva</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>12310.95</v>
+        <v>3377.93</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_7.xlsx
+++ b/data/input/absenteeism_data_7.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20183</v>
+        <v>94599</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel da Mata</t>
+          <t>Sra. Mariana das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>4903.6</v>
+        <v>7165.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54583</v>
+        <v>67116</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Arthur Monteiro</t>
+          <t>Bruno Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>11629.71</v>
+        <v>5139.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61540</v>
+        <v>93321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre Gomes</t>
+          <t>Sr. Daniel Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>11132.2</v>
+        <v>10010.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67537</v>
+        <v>1700</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicole Rodrigues</t>
+          <t>Sra. Laís Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>9710.83</v>
+        <v>10273.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39403</v>
+        <v>36792</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carlos Eduardo das Neves</t>
+          <t>Vicente da Conceição</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>4552.11</v>
+        <v>12406.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40176</v>
+        <v>14175</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cecília Pereira</t>
+          <t>João Gabriel Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,126 +642,126 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>11151.4</v>
+        <v>11241.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52992</v>
+        <v>29038</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Lucas da Costa</t>
+          <t>Mariana Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>10188.56</v>
+        <v>4826.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66358</v>
+        <v>29122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Laura Alves</t>
+          <t>João Lucas Nunes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>5169.96</v>
+        <v>4923.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96565</v>
+        <v>76658</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Helena Novaes</t>
+          <t>Gabrielly Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>7866.73</v>
+        <v>11358.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25095</v>
+        <v>69281</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Miguel Silva</t>
+          <t>Ian da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>3377.93</v>
+        <v>6631.93</v>
       </c>
     </row>
   </sheetData>
